--- a/data/reporting/end_user_to_every_thing.xlsx
+++ b/data/reporting/end_user_to_every_thing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="17955" windowHeight="11985"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="17955" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EUDL (Raw)" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/reporting/end_user_to_every_thing.xlsx
+++ b/data/reporting/end_user_to_every_thing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="17955" windowHeight="11985" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="17955" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="EUDL (Raw)" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -649,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
